--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F61514-5FAF-4C07-A2BA-70BA9B5473BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67780FAA-68D5-5644-9EB4-DF2B64F90CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="13880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Height</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>AlkyAge</t>
+  </si>
+  <si>
+    <t>sixty</t>
   </si>
 </sst>
 </file>
@@ -436,13 +439,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,7 +468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>180</v>
       </c>
@@ -488,7 +491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>175</v>
       </c>
@@ -511,9 +514,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>60</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
       </c>
       <c r="B4">
         <v>60</v>
@@ -534,7 +537,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>178</v>
       </c>
@@ -557,7 +560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>192</v>
       </c>
@@ -580,7 +583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -603,7 +606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>156</v>
       </c>
@@ -626,7 +629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>166</v>
       </c>
@@ -649,7 +652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>155</v>
       </c>
@@ -657,7 +660,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -672,12 +675,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>145</v>
       </c>
       <c r="B11">
-        <v>70</v>
+        <v>7000</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -695,13 +698,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>165</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
       <c r="C12" t="s">
         <v>3</v>
       </c>
@@ -718,7 +718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>133</v>
       </c>
@@ -741,7 +741,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>166</v>
       </c>
@@ -764,7 +764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>154</v>
       </c>
@@ -794,20 +794,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.26171875" customWidth="1"/>
-    <col min="3" max="3" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -818,7 +818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -829,7 +829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -840,7 +840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -851,47 +851,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
         <v>23</v>
       </c>
     </row>
